--- a/pred_ohlcv/54_21/2020-01-21 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 LUNA ohlcv.xlsx
@@ -3720,7 +3720,7 @@
         <v>-441748.6644860397</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-441687.1315860397</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-446654.3450860397</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-444353.1152860398</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-446353.1152860398</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-445150.0030860398</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-445220.5530860398</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-445220.5530860398</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-444870.5530860398</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-444870.5530860398</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-444520.5530860398</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-454683.5121860398</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-458785.2025860398</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-458785.2025860398</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-462993.1083860398</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-461813.6232871498</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-461813.6232871498</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-463784.1617871498</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-463979.3809871497</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-467771.6463871497</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-467511.8065871497</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-467511.8065871497</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-469995.2658871497</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-473847.6280871496</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-475290.0156871497</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-475855.8088871497</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-475855.8088871497</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-477500.6201871497</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-475317.6374275097</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-478428.3624275097</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-477289.8871275097</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-477037.9508275097</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-477320.4087275097</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-476593.8139275096</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-476682.8619275097</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-476682.8619275097</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-437532.4320275097</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-440153.5208275097</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-480470.8303275097</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-480071.4303275096</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-480671.4303275096</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-480671.4303275096</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-480971.4303275096</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-482459.1276275096</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-483246.5805275096</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-483264.7016275096</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-483264.7016275096</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-483444.9328275096</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-484428.4828275096</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-481793.2530275096</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-475508.6716275096</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-472794.3527275096</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-474766.9709275096</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-471702.7812275096</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-474523.2856275096</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-474523.2856275096</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-465536.6169275096</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-464161.1578275096</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-464328.6935275096</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-463691.4358275096</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-465478.9396275096</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-469044.5755275096</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-469044.5755275096</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-471324.3221275096</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-473173.8167275096</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-466975.2663275096</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-466975.2663275096</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-472923.6593275096</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-472923.6593275096</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-559220.822227509</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-535063.538327509</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-546691.6283275089</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-542873.729927509</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-509196.204427509</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-482799.413327509</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-482799.413327509</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-480612.635343489</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-480612.635343489</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-488637.404443489</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-497031.831543489</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-499164.577343489</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-502718.776843489</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-498533.338243489</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-501559.030543489</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-505207.935443489</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-499672.092743489</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-503585.719643489</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-510295.542143489</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-504807.476543489</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-497559.423643489</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-504054.845543489</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-511376.824943489</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-493101.730543489</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-542145.981843489</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-553448.556443489</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-556323.899743489</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-559835.201943489</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-550497.9183434891</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-519848.888043489</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-519890.890243489</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-456456.2575306091</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-466649.5264306091</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-463748.4080306091</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-467666.6046306092</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-448906.8156306092</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-460130.0368306092</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-463854.6482306092</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-469273.4610306092</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-479793.1282306092</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-487763.5806306092</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-489740.1218306092</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-493279.5702306092</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-495584.8285306092</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-500982.6173306092</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-506241.4388306092</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-509595.7308306092</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-518252.4877306093</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-512329.5397929193</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-517831.1262929193</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-522633.0209929193</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-520228.2953929193</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-520228.2953929193</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-517663.7563929193</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-525882.0460929193</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-536745.8770929193</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-530042.7597929193</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-535169.3716929193</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-538634.3169929193</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-600823.1229899495</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-609540.9156899495</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-610389.3275870195</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-613568.3796870195</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-613963.7402870195</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-612066.0755870196</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-616198.9845870195</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-616198.9845870195</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-649288.1715870196</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-645806.8483870196</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-643152.9711870196</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-643152.9711870196</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-648306.1536870196</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-685221.3792870196</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-697979.4419870196</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-701970.5242870196</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-701970.5242870196</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-1148942.345892309</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-1182699.232592309</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-1181505.660792309</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-1173581.673792309</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-1173581.673792309</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-1164021.496192309</v>
       </c>
       <c r="H1204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-1173933.825992309</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-1152043.017839219</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-1157169.209784519</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-1159201.935084519</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-1157997.515884519</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-1141066.894712129</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-1138292.981712129</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-1141669.919412129</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-1140800.341712129</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-1140800.341712129</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-1138252.379312129</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-1138252.379312129</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-1139734.082512129</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-1134814.841612129</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-1136132.616612129</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-1141182.247512129</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-1122376.687812129</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-1126126.924512129</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-1128946.237612129</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-1128946.237612129</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-1135000.375812129</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-1135000.375812129</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-1149098.082612129</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-1142822.459912129</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-1140467.653512129</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-1140467.653512129</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-1135126.535512129</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-1135126.535512129</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-1135126.535512129</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-1135126.535512129</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-1137717.092112129</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-1137717.092112129</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-1140497.086612129</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-1135533.598212129</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-1144048.914412129</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-1146137.402112129</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-1165982.376912129</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-1170857.526212129</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-1133507.146612129</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-1130626.499712129</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-1126248.664112129</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-1126248.664112129</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-1126248.664112129</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-1126248.664112129</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-1121721.689112128</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-1121396.611112128</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-1117899.786812128</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-1124754.493912128</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-1126975.519112129</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-1122455.875712129</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-1122455.875712129</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-1122455.875712129</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-1119253.601112129</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-1124741.405912129</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-1130008.059812129</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-1130008.059812129</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-1128747.171512129</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-1131277.445712129</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-1131277.445712129</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-1127264.081512129</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 LUNA ohlcv.xlsx
@@ -3720,7 +3720,7 @@
         <v>-441748.6644860397</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-441687.1315860397</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-446654.3450860397</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-444353.1152860398</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-446353.1152860398</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-445150.0030860398</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-445220.5530860398</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-445220.5530860398</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-444870.5530860398</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-444870.5530860398</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-444520.5530860398</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-454683.5121860398</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-458785.2025860398</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-458785.2025860398</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-462993.1083860398</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-461813.6232871498</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-461813.6232871498</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-463784.1617871498</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-463979.3809871497</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-467771.6463871497</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-467511.8065871497</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-467511.8065871497</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-469995.2658871497</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-473847.6280871496</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-475290.0156871497</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-475855.8088871497</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-475855.8088871497</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-477500.6201871497</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-475317.6374275097</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-478428.3624275097</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-477289.8871275097</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-477037.9508275097</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-477320.4087275097</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-476593.8139275096</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-476682.8619275097</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-476682.8619275097</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-437532.4320275097</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-440153.5208275097</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-473387.9753275097</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-473036.7193275097</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-480470.8303275097</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-480071.4303275096</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-480671.4303275096</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-480671.4303275096</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-480971.4303275096</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-482459.1276275096</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-483246.5805275096</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-483264.7016275096</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-483264.7016275096</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-483444.9328275096</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-484428.4828275096</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-481793.2530275096</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-475508.6716275096</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-472794.3527275096</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-474766.9709275096</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-471702.7812275096</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-474523.2856275096</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-474523.2856275096</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-465536.6169275096</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-464161.1578275096</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-464328.6935275096</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-465478.9396275096</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-469044.5755275096</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-471324.3221275096</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-473173.8167275096</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-466975.2663275096</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-466975.2663275096</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-472923.6593275096</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-472923.6593275096</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-559220.822227509</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-535063.538327509</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-546691.6283275089</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-542873.729927509</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-509196.204427509</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-480612.635343489</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-488637.404443489</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-497031.831543489</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-499164.577343489</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-502718.776843489</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-499672.092743489</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-503585.719643489</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-507068.411243489</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-510295.542143489</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-504807.476543489</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-497559.423643489</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-504054.845543489</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-511376.824943489</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-493101.730543489</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-542145.981843489</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-553448.556443489</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-556323.899743489</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-555559.568243489</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-468456.020743489</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-468456.020743489</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-478854.344643489</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-528523.193443489</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-514220.270843489</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-510295.336943489</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-510295.336943489</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-521968.741243489</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-526435.277543489</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-517838.242043489</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-519848.888043489</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-519890.890243489</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-518841.280243489</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-525129.855943489</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-498627.996443489</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-500600.662043489</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-494189.501643489</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-497383.011543489</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-489556.741643489</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-469916.134643489</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-483460.352043489</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-483460.352043489</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-478958.596843489</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-485126.703643489</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-489653.341143489</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-492894.082343489</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-494517.399043489</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-506256.654743489</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-502266.531443489</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-499648.215643489</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-502895.107543489</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-500060.702743489</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-500060.702743489</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-504188.299943489</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-516114.5223434891</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-479502.730343489</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-482531.114143489</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-477669.894343489</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-482172.886443489</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-486661.785043489</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-477732.9108434891</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-480832.4109434891</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-480832.4109434891</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-486870.5430306091</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-482127.7491306091</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-484065.3645306091</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-482667.9292306091</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-461440.3004306091</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-456456.2575306091</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-466649.5264306091</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-463748.4080306091</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-467666.6046306092</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-448906.8156306092</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-460130.0368306092</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-463854.6482306092</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-469273.4610306092</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-479793.1282306092</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-487763.5806306092</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-485262.9045306093</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-488953.3541306093</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-493312.0741306092</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-487396.5944306092</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-489740.1218306092</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-493279.5702306092</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-495584.8285306092</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-500982.6173306092</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-506241.4388306092</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-509595.7308306092</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-509595.7308306092</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-513125.4015306092</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-518252.4877306093</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-518252.4877306093</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-524883.5275306093</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-514610.6730929193</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-512329.5397929193</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-517831.1262929193</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-522633.0209929193</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-520228.2953929193</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-520228.2953929193</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-517663.7563929193</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-525882.0460929193</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-536745.8770929193</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-539633.7231929193</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-530042.7597929193</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-535169.3716929193</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-547519.9074929194</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-600823.1229899495</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-609540.9156899495</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-610389.3275870195</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-613568.3796870195</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-613963.7402870195</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-612066.0755870196</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-616198.9845870195</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-616198.9845870195</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-649288.1715870196</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-645806.8483870196</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-643152.9711870196</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-643152.9711870196</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-648306.1536870196</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-685221.3792870196</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-697979.4419870196</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-701970.5242870196</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-701970.5242870196</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-1181505.660792309</v>
       </c>
       <c r="H1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-1173581.673792309</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-1173581.673792309</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-1164021.496192309</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-1173933.825992309</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-1152043.017839219</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-1152551.146384519</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-1157169.209784519</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-1137539.695412129</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-1138252.379312129</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-1139734.082512129</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-1134814.841612129</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-1136132.616612129</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-1135985.153712129</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-1135985.153712129</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
